--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_17-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_17-01.xlsx
@@ -140,6 +140,9 @@
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
   </si>
   <si>
     <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
     <t>TRIMED FLU 20 F.C. TABS.</t>
@@ -1456,17 +1462,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1482,17 +1488,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>7.0499999999999998</v>
+        <v>51</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.050000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1508,17 +1514,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>221.16</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1540,11 +1546,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>58</v>
+        <v>221.16</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1560,17 +1566,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1578,7 +1584,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1586,17 +1592,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1612,17 +1618,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>28.710000000000001</v>
+        <v>192</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1638,17 +1644,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>18</v>
+        <v>115.2</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1664,17 +1670,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>26</v>
+        <v>28.710000000000001</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1682,7 +1688,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1690,17 +1696,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1708,7 +1714,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1716,13 +1722,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1734,7 +1740,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1742,13 +1748,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1760,7 +1766,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1768,13 +1774,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1786,7 +1792,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1794,13 +1800,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -1812,7 +1818,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1820,17 +1826,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1838,7 +1844,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1852,11 +1858,11 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1864,7 +1870,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1872,17 +1878,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1898,17 +1904,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1924,17 +1930,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1942,7 +1948,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1950,17 +1956,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1968,7 +1974,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1976,17 +1982,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -1994,7 +2000,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2002,13 +2008,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2020,7 +2026,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2028,51 +2034,103 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="K51" s="11">
-        <v>4186.0900000000001</v>
-      </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="12">
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c t="s" r="B51" s="7">
         <v>76</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c t="s" r="F52" s="13">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c t="s" r="H51" s="8">
+        <v>66</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9">
+        <v>15</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c t="s" r="B52" s="7">
         <v>77</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-      <c t="s" r="I52" s="15">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c t="s" r="H52" s="8">
+        <v>66</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="25.5" customHeight="1">
+      <c r="K53" s="11">
+        <v>4390.29</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" ht="17.25" customHeight="1">
+      <c t="s" r="A54" s="12">
         <v>78</v>
       </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c t="s" r="F54" s="13">
+        <v>79</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c t="s" r="I54" s="15">
+        <v>80</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="158">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2221,10 +2279,16 @@
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="I54:N54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
